--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB307.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Normals_Evaluation_WB307.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,23 @@
           <t>Angle between normals (degrees)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coord: normal vector scan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2198384400022089</v>
+        <v>0.2198433730912588</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.         0.3213351  0.94696555]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -458,7 +468,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.427636760099869</v>
+        <v>1.427634881625641</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.43841952  0.52318006  0.73080158]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -466,7 +481,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08238890991700341</v>
+        <v>0.08238799197386509</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.00130162  0.01543052  0.9998801 ]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -474,7 +494,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6051120268417458</v>
+        <v>0.6051075703701794</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.00111763  0.2844085  -0.95870254]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -482,7 +507,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.65697436469393</v>
+        <v>1.656982050048569</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.72443713 0.28877145 0.62594081]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -490,7 +520,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6729491238647404</v>
+        <v>0.6729724159768979</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.73447669 -0.27249856  0.62152114]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -498,7 +533,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.53999312872931</v>
+        <v>0.5399908464861775</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.         0.31603882 0.94874626]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -506,7 +546,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9327832902645992</v>
+        <v>0.9327842266394749</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.30952729  0.95089056]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -514,7 +559,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.029690609117575</v>
+        <v>2.029716798134745</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.72718942  0.25449306  0.6375177 ]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -522,7 +572,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.630452462234255</v>
+        <v>1.630453625149624</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[ 0.73093484 -0.27747786  0.62349042]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -530,7 +585,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6597484314243388</v>
+        <v>0.6597456662582706</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[ 0.00115748 -0.28349319 -0.95897355]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -538,7 +598,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.837524189432195</v>
+        <v>1.837524059595558</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.72219352 -0.28915646  0.62835106]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -546,7 +611,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.635631757139229</v>
+        <v>3.635621934349079</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.70292503 0.26220741 0.66116842]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -554,7 +624,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.56653109565289</v>
+        <v>1.566534017546801</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[ 0.         -0.29899075  0.95425601]</t>
+        </is>
       </c>
     </row>
   </sheetData>
